--- a/biology/Botanique/Epipogium/Epipogium.xlsx
+++ b/biology/Botanique/Epipogium/Epipogium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epipogium est un genre d'orchidées regroupant, selon les sources, entre trois[1] et dix espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epipogium est un genre d'orchidées regroupant, selon les sources, entre trois et dix espèces.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de ce genre se rencontrent en Europe, en Asie, en Afrique et en Australie.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes saprophytes, rhizomateuses, aux inflorescences lâches de fleurs pédicellées, pendantes sur une tige sans feuilles[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantes saprophytes, rhizomateuses, aux inflorescences lâches de fleurs pédicellées, pendantes sur une tige sans feuilles.
 Les rhizomes ont un aspect de corail.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Répartition en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Épipogon sans feuilles  est présent dans l'est des Alpes, dans le Jura, les Pyrénées, les Vosges et les Cévennes. L'espèce est protégée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Épipogon sans feuilles  est présent dans l'est des Alpes, dans le Jura, les Pyrénées, les Vosges et les Cévennes. L'espèce est protégée.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Epipogium aphyllum: Swartz 1814  ou Épipogon sans feuilles  (Eurasie)
 Epipogium dentilabellum Ohtani &amp; S.Suzuki
